--- a/ERP/Diseño/Mockups/Avance.xlsx
+++ b/ERP/Diseño/Mockups/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>Compras</t>
   </si>
@@ -151,6 +151,30 @@
   </si>
   <si>
     <t>Tipo de cuenta</t>
+  </si>
+  <si>
+    <t>Almacen</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Traspaso</t>
+  </si>
+  <si>
+    <t>Preparacion inventario fisico</t>
+  </si>
+  <si>
+    <t>Inventario fisico</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>Movimiento</t>
   </si>
 </sst>
 </file>
@@ -644,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D107"/>
+  <dimension ref="B1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -902,7 +926,9 @@
       <c r="B34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B35" s="6" t="s">
@@ -924,28 +950,36 @@
       <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="40" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="41" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="5"/>
@@ -960,13 +994,17 @@
       <c r="B43" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B45" s="21" t="s">
@@ -981,178 +1019,206 @@
       <c r="C46" s="25"/>
     </row>
     <row r="47" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B47" s="15"/>
+      <c r="B47" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="C47" s="12"/>
     </row>
     <row r="48" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B48" s="15"/>
+      <c r="B48" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="C48" s="12"/>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B49" s="15"/>
-      <c r="C49" s="12"/>
+      <c r="B49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="20"/>
     </row>
     <row r="50" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B50" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="20"/>
+      <c r="B50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B55" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
+      <c r="C55" s="20"/>
     </row>
     <row r="56" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B58" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="22"/>
-    </row>
-    <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B59" s="6"/>
-      <c r="C59" s="5"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B60" s="6"/>
       <c r="C60" s="5"/>
     </row>
     <row r="61" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="6"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B62" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="22"/>
-    </row>
-    <row r="62" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B62" s="6"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B63" s="6"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B64" s="21" t="s">
+    <row r="64" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B64" s="6"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B65" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="22"/>
-    </row>
-    <row r="65" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B65" s="6"/>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="C65" s="22"/>
+    </row>
+    <row r="66" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B66" s="6"/>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="6"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B68" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="22"/>
-    </row>
-    <row r="68" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B68" s="6"/>
-      <c r="C68" s="5"/>
+      <c r="C68" s="22"/>
     </row>
     <row r="69" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B69" s="6"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B70" s="21" t="s">
+    <row r="70" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B70" s="6"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="22"/>
-    </row>
-    <row r="71" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B71" s="6"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="22"/>
     </row>
     <row r="72" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B72" s="6"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="2:3" ht="15.75" customHeight="1">
+    <row r="73" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B73" s="6"/>
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="2:3">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:3" ht="18.75" customHeight="1">
+    <row r="75" spans="2:3" ht="15.75" customHeight="1">
       <c r="B75" s="1"/>
     </row>
     <row r="76" spans="2:3" ht="18.75" customHeight="1">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="77" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B77" s="1"/>
+    </row>
     <row r="78" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="79" spans="2:3" ht="18.75" customHeight="1"/>
-    <row r="80" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="79" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="80" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="18.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="18.75" customHeight="1"/>
     <row r="85" ht="15.75" customHeight="1"/>
     <row r="86" ht="15.75" customHeight="1"/>
     <row r="87" ht="15.75" customHeight="1"/>
     <row r="88" ht="15.75" customHeight="1"/>
     <row r="89" ht="15.75" customHeight="1"/>
     <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="18.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="18.75" customHeight="1"/>
     <row r="93" ht="15.75" customHeight="1"/>
     <row r="94" ht="15.75" customHeight="1"/>
     <row r="95" ht="15.75" customHeight="1"/>
     <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="18.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="18.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
     <row r="100" ht="15.75" customHeight="1"/>
     <row r="101" ht="15.75" customHeight="1"/>
     <row r="102" ht="15.75" customHeight="1"/>
     <row r="103" ht="15.75" customHeight="1"/>
     <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="18.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="18.75" customHeight="1"/>
     <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>

--- a/ERP/Diseño/Mockups/Avance.xlsx
+++ b/ERP/Diseño/Mockups/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>Compras</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Contabilidad</t>
   </si>
   <si>
-    <t>Configuraciones</t>
-  </si>
-  <si>
     <t>Cuentas por Cobrar</t>
   </si>
   <si>
@@ -175,6 +172,66 @@
   </si>
   <si>
     <t>Movimiento</t>
+  </si>
+  <si>
+    <t>Sucursales</t>
+  </si>
+  <si>
+    <t>Configuracion</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
+  </si>
+  <si>
+    <t>Roles de usuario</t>
+  </si>
+  <si>
+    <t>Tipo de cliente</t>
+  </si>
+  <si>
+    <t>Tipo de proveedor</t>
+  </si>
+  <si>
+    <t>Unidad de medida</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Impuesto</t>
+  </si>
+  <si>
+    <t>Forma de pago</t>
+  </si>
+  <si>
+    <t>Tipo de poliza</t>
+  </si>
+  <si>
+    <t>Planeacion de cambios de precio</t>
+  </si>
+  <si>
+    <t>Acceso de usuarios</t>
+  </si>
+  <si>
+    <t>Cambio de contraseña</t>
+  </si>
+  <si>
+    <t>Formas de impresión</t>
   </si>
 </sst>
 </file>
@@ -210,7 +267,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +277,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -344,35 +413,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D108"/>
+  <dimension ref="B1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -684,547 +768,711 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="6" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B24" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B25" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:4" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B27" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B28" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="20"/>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B27" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="25"/>
-    </row>
-    <row r="28" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B32" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B33" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B35" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B36" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="26"/>
     </row>
     <row r="37" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B37" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B38" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B39" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B40" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="5"/>
+      <c r="B41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="20"/>
+      <c r="B42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B43" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B44" s="6" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B45" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="22"/>
+      <c r="B45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="26"/>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="22"/>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B51" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="28"/>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B52" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="25"/>
-    </row>
-    <row r="47" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B47" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="12"/>
-    </row>
-    <row r="48" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B48" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="12"/>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B49" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="20"/>
-    </row>
-    <row r="50" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B50" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B51" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B52" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>43</v>
+      <c r="C52" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B53" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="7"/>
+      <c r="B53" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B54" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="7"/>
+      <c r="B54" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="26"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B55" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="20"/>
+      <c r="B55" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="56" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B56" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="57" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B64" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="30"/>
+    </row>
+    <row r="65" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B65" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B66" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B68" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="21"/>
+    </row>
+    <row r="69" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B69" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="28"/>
+    </row>
+    <row r="70" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B70" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B58" s="21" t="s">
+      <c r="C70" s="17"/>
+    </row>
+    <row r="71" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B71" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="12"/>
+    </row>
+    <row r="72" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B72" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="12"/>
+    </row>
+    <row r="73" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B73" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="26"/>
+    </row>
+    <row r="74" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B74" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B75" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B76" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B77" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B78" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B79" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="26"/>
+    </row>
+    <row r="80" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B80" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B81" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B82" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="22"/>
-    </row>
-    <row r="59" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B60" s="6"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B61" s="6"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B62" s="21" t="s">
+      <c r="C82" s="21"/>
+    </row>
+    <row r="83" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B84" s="6"/>
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B85" s="6"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B86" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="21"/>
+    </row>
+    <row r="87" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B87" s="6"/>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B88" s="6"/>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B89" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="22"/>
-    </row>
-    <row r="63" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B63" s="6"/>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B64" s="6"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B65" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="22"/>
-    </row>
-    <row r="66" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B66" s="6"/>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B67" s="6"/>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B68" s="21" t="s">
+      <c r="C89" s="21"/>
+    </row>
+    <row r="90" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B90" s="6"/>
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B91" s="6"/>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B92" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="22"/>
-    </row>
-    <row r="69" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B69" s="6"/>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B70" s="6"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B71" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="22"/>
-    </row>
-    <row r="72" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B72" s="6"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B73" s="6"/>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="79" spans="2:3" ht="15.75" customHeight="1"/>
-    <row r="80" spans="2:3" ht="18.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="18.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="18.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="18.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="18.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B93" s="6"/>
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B94" s="6"/>
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" ht="18.75" customHeight="1">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" ht="18.75" customHeight="1">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="100" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="101" spans="2:2" ht="18.75" customHeight="1"/>
+    <row r="102" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="103" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="104" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="105" spans="2:2" ht="18.75" customHeight="1"/>
+    <row r="106" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="107" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="108" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="109" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="110" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="111" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="112" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="113" ht="18.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="18.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="18.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B55:C55"/>
+  <mergeCells count="19">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B69:C69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ERP/Diseño/Mockups/Avance.xlsx
+++ b/ERP/Diseño/Mockups/Avance.xlsx
@@ -425,6 +425,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -435,28 +453,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -768,17 +768,17 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="4"/>
@@ -814,7 +814,7 @@
       <c r="B7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
@@ -909,10 +909,10 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
@@ -937,10 +937,10 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
@@ -951,17 +951,17 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B29" s="6" t="s">
@@ -1007,7 +1007,7 @@
       <c r="B34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="30"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B35" s="6" t="s">
@@ -1018,10 +1018,10 @@
       </c>
     </row>
     <row r="36" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B37" s="6" t="s">
@@ -1096,10 +1096,10 @@
       </c>
     </row>
     <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="26"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B47" s="6" t="s">
@@ -1126,16 +1126,16 @@
       </c>
     </row>
     <row r="50" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="22"/>
+      <c r="C50" s="28"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="28"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B52" s="13" t="s">
@@ -1154,10 +1154,10 @@
       </c>
     </row>
     <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="26"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B55" s="6" t="s">
@@ -1235,13 +1235,13 @@
       <c r="B64" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="30"/>
+      <c r="C64" s="23"/>
     </row>
     <row r="65" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="26"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="66" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B66" s="6" t="s">
@@ -1260,16 +1260,16 @@
       </c>
     </row>
     <row r="68" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="21"/>
+      <c r="C68" s="27"/>
     </row>
     <row r="69" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="28"/>
+      <c r="C69" s="30"/>
     </row>
     <row r="70" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B70" s="13" t="s">
@@ -1290,10 +1290,10 @@
       <c r="C72" s="12"/>
     </row>
     <row r="73" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="26"/>
+      <c r="C73" s="25"/>
     </row>
     <row r="74" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B74" s="6" t="s">
@@ -1332,10 +1332,10 @@
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="26"/>
+      <c r="C79" s="25"/>
     </row>
     <row r="80" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B80" s="6" t="s">
@@ -1350,10 +1350,10 @@
       <c r="C81" s="7"/>
     </row>
     <row r="82" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="21"/>
+      <c r="C82" s="27"/>
     </row>
     <row r="83" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B83" s="8"/>
@@ -1368,10 +1368,10 @@
       <c r="C85" s="5"/>
     </row>
     <row r="86" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="21"/>
+      <c r="C86" s="27"/>
     </row>
     <row r="87" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B87" s="6"/>
@@ -1382,10 +1382,10 @@
       <c r="C88" s="5"/>
     </row>
     <row r="89" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="21"/>
+      <c r="C89" s="27"/>
     </row>
     <row r="90" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B90" s="6"/>
@@ -1396,10 +1396,10 @@
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="21"/>
+      <c r="C92" s="27"/>
     </row>
     <row r="93" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B93" s="6"/>
@@ -1454,11 +1454,6 @@
     <row r="129" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B2:C2"/>
@@ -1473,6 +1468,11 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B73:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ERP/Diseño/Mockups/Avance.xlsx
+++ b/ERP/Diseño/Mockups/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>Compras</t>
   </si>
@@ -755,7 +755,7 @@
   <dimension ref="B1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -821,91 +821,109 @@
       <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B14" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B17" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
@@ -1454,14 +1472,11 @@
     <row r="129" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B92:C92"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B89:C89"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B51:C51"/>
@@ -1473,6 +1488,9 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B89:C89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ERP/Diseño/Mockups/Avance.xlsx
+++ b/ERP/Diseño/Mockups/Avance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="195" windowWidth="9660" windowHeight="7755"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>Compras</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>Formas de impresión</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>HECHOS</t>
+  </si>
+  <si>
+    <t>FALTANTES</t>
   </si>
 </sst>
 </file>
@@ -401,9 +410,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -419,12 +425,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -437,26 +437,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D129"/>
+  <dimension ref="B1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -763,167 +772,209 @@
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="53" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B3" s="20" t="s">
+      <c r="E2" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="13" t="s">
+      <c r="E3" s="5">
+        <f>81-16</f>
+        <v>65</v>
+      </c>
+      <c r="F3" s="5">
+        <f>COUNTIF(C4:C81,"SI")</f>
+        <v>52</v>
+      </c>
+      <c r="G3" s="5">
+        <f>E3-F3</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="13" t="s">
+      <c r="E4" s="30">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30">
+        <f>F3/E3</f>
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="30">
+        <f>G3/E3</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
@@ -941,17 +992,19 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
@@ -969,10 +1022,10 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
@@ -1025,7 +1078,7 @@
       <c r="B34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B35" s="6" t="s">
@@ -1144,30 +1197,30 @@
       </c>
     </row>
     <row r="50" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="28"/>
+      <c r="C50" s="23"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="30"/>
+      <c r="C51" s="27"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1253,7 +1306,7 @@
       <c r="B64" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="20"/>
     </row>
     <row r="65" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B65" s="24" t="s">
@@ -1278,34 +1331,38 @@
       </c>
     </row>
     <row r="68" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="27"/>
+      <c r="C68" s="22"/>
     </row>
     <row r="69" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="30"/>
+      <c r="C69" s="27"/>
     </row>
     <row r="70" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B70" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="17"/>
+      <c r="C70" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="71" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="12"/>
+      <c r="C71" s="28" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="72" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="12"/>
+      <c r="C72" s="15"/>
     </row>
     <row r="73" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B73" s="24" t="s">
@@ -1368,10 +1425,10 @@
       <c r="C81" s="7"/>
     </row>
     <row r="82" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="27"/>
+      <c r="C82" s="22"/>
     </row>
     <row r="83" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B83" s="8"/>
@@ -1386,10 +1443,10 @@
       <c r="C85" s="5"/>
     </row>
     <row r="86" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="27"/>
+      <c r="C86" s="22"/>
     </row>
     <row r="87" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B87" s="6"/>
@@ -1400,10 +1457,10 @@
       <c r="C88" s="5"/>
     </row>
     <row r="89" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="27"/>
+      <c r="C89" s="22"/>
     </row>
     <row r="90" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B90" s="6"/>
@@ -1414,10 +1471,10 @@
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="27"/>
+      <c r="C92" s="22"/>
     </row>
     <row r="93" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B93" s="6"/>
@@ -1472,6 +1529,9 @@
     <row r="129" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B89:C89"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B68:C68"/>
@@ -1488,9 +1548,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B89:C89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
